--- a/docs/logical_datamap.xlsx
+++ b/docs/logical_datamap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HOC\TRAIN_FPT\tuan7_project2\FA_project1\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3BCD76C-D101-4064-AC05-72D94764B6AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7397246-F488-4C34-8456-9D4C5F07803C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="69">
   <si>
     <t>Target</t>
   </si>
@@ -233,6 +233,10 @@
   </si>
   <si>
     <t>OrderDateKey</t>
+  </si>
+  <si>
+    <t>OrderQty*
+StandardCost</t>
   </si>
 </sst>
 </file>
@@ -602,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="G35" sqref="G34:G35"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
@@ -748,7 +752,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>16</v>
@@ -918,7 +922,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>21</v>
@@ -1115,7 +1119,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>30</v>
@@ -1380,7 +1384,7 @@
         <v>45</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
